--- a/default chart.xlsx
+++ b/default chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iaden2/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513B3578-39BC-A543-B5B8-AF93551C9087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4C7002-F212-2142-AC94-96EC66DC9637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="415" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" tabRatio="415" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="89">
   <si>
     <t>ABOUT THIS GANTT CHART</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>Consumer Engagement, Digital Therapeutic and Innovation Products   (CE DTI)</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
 </sst>
 </file>
@@ -1891,6 +1894,12 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="39" fillId="40" borderId="21" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="41" borderId="21" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1965,12 +1974,6 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="40" borderId="21" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="41" borderId="21" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="20% - Accent1" xfId="10" builtinId="30"/>
@@ -1989,175 +1992,7 @@
     <cellStyle name="Title" xfId="4" builtinId="15"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="185">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF60E6BB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE9DE7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF73FB79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF929000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEB374F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB215FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF9FFC3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE2FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF007DFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAE0FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCAF4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCF89DE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF73FB79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF929000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEB374F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF007DFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="119">
     <dxf>
       <font>
         <b/>
@@ -3045,6 +2880,174 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE9DE7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF60E6BB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF73FB79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF929000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEB374F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB215FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9FFC3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE2FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF007DFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAE0FA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCAF4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCF89DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF73FB79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF929000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEB374F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF007DFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
         </patternFill>
       </fill>
@@ -3088,7 +3091,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
       <border>
@@ -3101,7 +3104,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
       <border>
@@ -3233,468 +3236,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF73FB79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF929000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEB374F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB215FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF9FFC3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE2FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF007DFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF73FB79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF929000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEB374F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF007DFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF73FB79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF929000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEB374F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF007DFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB215FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB215FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF9FFC3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE2FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAE0FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCAF4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCF89DE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF73FB79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF929000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEB374F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF007DFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF73FB79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF929000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEB374F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF007DFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF73FB79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF929000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEB374F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF007DFA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4014,21 +3555,21 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="184"/>
-      <tableStyleElement type="headerRow" dxfId="183"/>
-      <tableStyleElement type="firstRowStripe" dxfId="182"/>
-      <tableStyleElement type="secondRowStripe" dxfId="181"/>
+      <tableStyleElement type="wholeTable" dxfId="118"/>
+      <tableStyleElement type="headerRow" dxfId="117"/>
+      <tableStyleElement type="firstRowStripe" dxfId="116"/>
+      <tableStyleElement type="secondRowStripe" dxfId="115"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="180"/>
-      <tableStyleElement type="headerRow" dxfId="179"/>
-      <tableStyleElement type="totalRow" dxfId="178"/>
-      <tableStyleElement type="firstColumn" dxfId="177"/>
-      <tableStyleElement type="lastColumn" dxfId="176"/>
-      <tableStyleElement type="firstRowStripe" dxfId="175"/>
-      <tableStyleElement type="secondRowStripe" dxfId="174"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="173"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="172"/>
+      <tableStyleElement type="wholeTable" dxfId="114"/>
+      <tableStyleElement type="headerRow" dxfId="113"/>
+      <tableStyleElement type="totalRow" dxfId="112"/>
+      <tableStyleElement type="firstColumn" dxfId="111"/>
+      <tableStyleElement type="lastColumn" dxfId="110"/>
+      <tableStyleElement type="firstRowStripe" dxfId="109"/>
+      <tableStyleElement type="secondRowStripe" dxfId="108"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="107"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="106"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4163,29 +3704,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones4352" displayName="Milestones4352" ref="B10:L314" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones4352" displayName="Milestones4352" ref="B10:L314" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="B10:L314" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Feature Area" dataDxfId="75"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Strategic Theme ID" dataDxfId="74"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Name" dataDxfId="73"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Predecessors" dataDxfId="72"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Successors" dataDxfId="71"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Category" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progress" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start Date" dataDxfId="68" dataCellStyle="Date"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="End Date" dataDxfId="67" dataCellStyle="Comma [0]"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Days" dataDxfId="66" dataCellStyle="Comma [0]">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Feature Area" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Strategic Theme ID" dataDxfId="50"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Name" dataDxfId="49"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Predecessors" dataDxfId="48"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Successors" dataDxfId="47"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="State" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progress" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start Date" dataDxfId="44" dataCellStyle="Date"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="End Date" dataDxfId="43" dataCellStyle="Comma [0]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Days" dataDxfId="42" dataCellStyle="Comma [0]">
       <calculatedColumnFormula>Milestones4352[[#This Row],[End Date]]-Milestones4352[[#This Row],[Start Date]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="GoLive" dataDxfId="65" dataCellStyle="Comma [0]"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="GoLive" dataDxfId="41" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="26">
   <autoFilter ref="B9:G36" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4195,9 +3736,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Milestone description" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Category" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Assigned to" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Milestone description" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Category" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Assigned to" dataDxfId="23"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Days" dataCellStyle="Comma [0]"/>
@@ -4207,7 +3748,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Milestones43524" displayName="Milestones43524" ref="B9:L36" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Milestones43524" displayName="Milestones43524" ref="B9:L36" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="B9:L36" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4222,15 +3763,15 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Milestone description" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Category" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Assigned to" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Milestone description" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Category" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Assigned to" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Progress"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Column4" dataDxfId="28" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Column5" dataDxfId="27" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Column3" dataDxfId="26" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Column2" dataDxfId="25" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Column1" dataDxfId="24" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Column4" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Column5" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Column3" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Column2" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Column1" dataDxfId="0" dataCellStyle="Percent"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Days" dataCellStyle="Comma [0]"/>
   </tableColumns>
@@ -4522,11 +4063,11 @@
     <row r="2" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="97"/>
-      <c r="C2" s="202" t="s">
+      <c r="C2" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
       <c r="F2" s="97"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -4554,11 +4095,11 @@
     <row r="4" spans="1:13" s="197" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="92"/>
-      <c r="C4" s="204" t="s">
+      <c r="C4" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
       <c r="F4" s="92"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -4571,11 +4112,11 @@
     <row r="5" spans="1:13" s="197" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="92"/>
-      <c r="C5" s="204" t="s">
+      <c r="C5" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
       <c r="F5" s="92"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -4678,10 +4219,10 @@
   <dimension ref="A1:W1444"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="57" zoomScaleNormal="69" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.83203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="198" customWidth="1"/>
@@ -4693,7 +4234,7 @@
     <col min="8" max="8" width="18.5" style="198" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" style="200" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="200" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="201" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="201" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="10.5" style="198" bestFit="1" customWidth="1"/>
     <col min="13" max="23" width="16.83203125" style="198" customWidth="1"/>
   </cols>
@@ -4701,28 +4242,28 @@
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:23" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="210" t="s">
+      <c r="B2" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="211"/>
-      <c r="O2" s="211"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="211"/>
-      <c r="R2" s="211"/>
-      <c r="S2" s="211"/>
-      <c r="T2" s="211"/>
-      <c r="U2" s="211"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="218"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
       <c r="V2" s="53"/>
       <c r="W2" s="53"/>
     </row>
@@ -4752,41 +4293,41 @@
       <c r="D4" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="E4" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="113" t="s">
+      <c r="F4" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="114" t="s">
+      <c r="G4" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="162" t="s">
+      <c r="H4" s="162" t="s">
         <v>84</v>
       </c>
       <c r="J4" s="163"/>
       <c r="L4" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="208" t="s">
+      <c r="M4" s="210" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="207"/>
+      <c r="N4" s="209"/>
       <c r="O4" s="116"/>
-      <c r="P4" s="209" t="s">
+      <c r="P4" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="207"/>
+      <c r="Q4" s="209"/>
       <c r="R4" s="112"/>
-      <c r="S4" s="217" t="s">
+      <c r="S4" s="219" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="207"/>
+      <c r="T4" s="209"/>
       <c r="U4" s="112"/>
-      <c r="V4" s="206" t="s">
+      <c r="V4" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="207"/>
+      <c r="W4" s="209"/>
     </row>
     <row r="5" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -4797,15 +4338,14 @@
       <c r="D5" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="131" t="s">
+      <c r="E5" s="62"/>
+      <c r="F5" s="131" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="134" t="s">
+      <c r="G5" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="164" t="s">
+      <c r="H5" s="164" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4820,14 +4360,14 @@
       <c r="D6" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="132" t="s">
+      <c r="E6" s="62"/>
+      <c r="F6" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="115" t="s">
+      <c r="G6" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="165" t="s">
+      <c r="H6" s="165" t="s">
         <v>86</v>
       </c>
       <c r="L6" s="109" t="s">
@@ -4883,14 +4423,14 @@
       <c r="B7" s="65"/>
       <c r="C7" s="66"/>
       <c r="D7" s="120"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="133" t="s">
+      <c r="E7" s="62"/>
+      <c r="F7" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="130" t="s">
+      <c r="G7" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="166" t="s">
+      <c r="H7" s="166" t="s">
         <v>83</v>
       </c>
       <c r="L7" s="109" t="s">
@@ -4953,14 +4493,13 @@
         <v>20</v>
       </c>
       <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="230" t="s">
+      <c r="F8" s="202" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="231" t="s">
+      <c r="G8" s="203" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="167"/>
+      <c r="H8" s="167"/>
       <c r="M8" s="122">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
         <v>44712</v>
@@ -5044,7 +4583,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="99" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="H10" s="99" t="s">
         <v>27</v>
@@ -21376,49 +20915,49 @@
     <mergeCell ref="S4:T4"/>
   </mergeCells>
   <conditionalFormatting sqref="M8:V9 M10:W10">
-    <cfRule type="expression" dxfId="171" priority="110">
+    <cfRule type="expression" dxfId="105" priority="110">
       <formula>AND(TODAY()&gt;=M$8,TODAY()&lt;N$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:W313">
-    <cfRule type="expression" dxfId="170" priority="102">
+    <cfRule type="expression" dxfId="104" priority="102">
       <formula>type="N/A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="103">
+    <cfRule type="expression" dxfId="103" priority="103">
       <formula>type="Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:W7">
-    <cfRule type="expression" dxfId="168" priority="170">
+    <cfRule type="expression" dxfId="102" priority="170">
       <formula>M$8&lt;=EOMONTH($M$8,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="173">
+    <cfRule type="expression" dxfId="101" priority="173">
       <formula>AND(M$8&lt;=EOMONTH($M$8,1),M$8&gt;EOMONTH($M$8,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:W7">
-    <cfRule type="expression" dxfId="166" priority="172">
+    <cfRule type="expression" dxfId="100" priority="172">
       <formula>AND(N$8&lt;=EOMONTH($M$8,2),N$8&gt;EOMONTH($M$8,0),N$8&gt;EOMONTH($M$8,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:W12">
-    <cfRule type="cellIs" dxfId="165" priority="193" operator="between">
+    <cfRule type="cellIs" dxfId="99" priority="193" operator="between">
       <formula>$I$12</formula>
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:W9">
-    <cfRule type="expression" dxfId="164" priority="200">
+    <cfRule type="expression" dxfId="98" priority="200">
       <formula>AND(TODAY()&gt;=W$8,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:V313">
-    <cfRule type="expression" dxfId="163" priority="234">
+    <cfRule type="expression" dxfId="97" priority="234">
       <formula>AND(TODAY()&gt;=M$8,TODAY()&lt;N$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11:W313">
-    <cfRule type="expression" dxfId="162" priority="245">
+    <cfRule type="expression" dxfId="96" priority="245">
       <formula>AND(TODAY()&gt;=W$8,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21466,11 +21005,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:W1000">
-    <cfRule type="expression" dxfId="82" priority="361" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="360" stopIfTrue="1">
+      <formula>AND($G11="Low Risk",M$8&gt;=$I11,M$8&lt;=$I11+$K11-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="361" stopIfTrue="1">
       <formula>AND($G11="High Risk",M$8&gt;=$I11,M$8&lt;=$I11+$K11-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="360" stopIfTrue="1">
-      <formula>AND($G11="Low Risk",M$8&gt;=$I11,M$8&lt;=$I11+$K11-1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="80" priority="362" stopIfTrue="1">
       <formula>AND($G11="On Track",M$8&gt;=$I11,M$8&lt;=$I11+$K11-1)</formula>
@@ -21483,82 +21022,82 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B314">
-    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="Benefit &amp; Config">
+    <cfRule type="containsText" dxfId="77" priority="15" operator="containsText" text="Benefit &amp; Config">
       <formula>NOT(ISERROR(SEARCH("Benefit &amp; Config",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="16" operator="containsText" text="Provider Experience">
+    <cfRule type="containsText" dxfId="76" priority="16" operator="containsText" text="Provider Experience">
       <formula>NOT(ISERROR(SEARCH("Provider Experience",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="Member Experience">
+    <cfRule type="containsText" dxfId="75" priority="17" operator="containsText" text="Member Experience">
       <formula>NOT(ISERROR(SEARCH("Member Experience",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="Broker &amp; Employer Experience">
+    <cfRule type="containsText" dxfId="74" priority="18" operator="containsText" text="Broker &amp; Employer Experience">
       <formula>NOT(ISERROR(SEARCH("Broker &amp; Employer Experience",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Commercial Medical Product">
+    <cfRule type="containsText" dxfId="73" priority="19" operator="containsText" text="Commercial Medical Product">
       <formula>NOT(ISERROR(SEARCH("Commercial Medical Product",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="Digital Therapeutic &amp; Innovation Products">
+    <cfRule type="containsText" dxfId="72" priority="20" operator="containsText" text="Digital Therapeutic &amp; Innovation Products">
       <formula>NOT(ISERROR(SEARCH("Digital Therapeutic &amp; Innovation Products",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="Consumer Engagement">
+    <cfRule type="containsText" dxfId="71" priority="21" operator="containsText" text="Consumer Engagement">
       <formula>NOT(ISERROR(SEARCH("Consumer Engagement",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="22" operator="containsText" text="Specialty">
+    <cfRule type="containsText" dxfId="70" priority="22" operator="containsText" text="Specialty">
       <formula>NOT(ISERROR(SEARCH("Specialty",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="Quotes Install &amp; Bill">
+    <cfRule type="containsText" dxfId="69" priority="23" operator="containsText" text="Quotes Install &amp; Bill">
       <formula>NOT(ISERROR(SEARCH("Quotes Install &amp; Bill",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="24" operator="containsText" text="Data Migration">
+    <cfRule type="containsText" dxfId="68" priority="24" operator="containsText" text="Data Migration">
       <formula>NOT(ISERROR(SEARCH("Data Migration",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B314">
-    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="CMP">
+    <cfRule type="containsText" dxfId="67" priority="10" operator="containsText" text="CMP">
       <formula>NOT(ISERROR(SEARCH("CMP",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="CE DTI">
+    <cfRule type="containsText" dxfId="66" priority="11" operator="containsText" text="CE DTI">
       <formula>NOT(ISERROR(SEARCH("CE DTI",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="SP">
+    <cfRule type="containsText" dxfId="65" priority="12" operator="containsText" text="SP">
       <formula>NOT(ISERROR(SEARCH("SP",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="QIB">
+    <cfRule type="containsText" dxfId="64" priority="13" operator="containsText" text="QIB">
       <formula>NOT(ISERROR(SEARCH("QIB",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="14" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="63" priority="14" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B314">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="BC">
+    <cfRule type="containsText" dxfId="62" priority="3" operator="containsText" text="BC">
       <formula>NOT(ISERROR(SEARCH("BC",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="SC">
+    <cfRule type="containsText" dxfId="61" priority="4" operator="containsText" text="SC">
       <formula>NOT(ISERROR(SEARCH("SC",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="PCP">
+    <cfRule type="containsText" dxfId="60" priority="5" operator="containsText" text="PCP">
       <formula>NOT(ISERROR(SEARCH("PCP",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="RA">
+    <cfRule type="containsText" dxfId="59" priority="6" operator="containsText" text="RA">
       <formula>NOT(ISERROR(SEARCH("RA",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="PE">
+    <cfRule type="containsText" dxfId="58" priority="7" operator="containsText" text="PE">
       <formula>NOT(ISERROR(SEARCH("PE",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="ME">
+    <cfRule type="containsText" dxfId="57" priority="8" operator="containsText" text="ME">
       <formula>NOT(ISERROR(SEARCH("ME",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="BEE">
+    <cfRule type="containsText" dxfId="56" priority="9" operator="containsText" text="BEE">
       <formula>NOT(ISERROR(SEARCH("BEE",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B314">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="POC">
+    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="POC">
       <formula>NOT(ISERROR(SEARCH("POC",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="OR">
+    <cfRule type="containsText" dxfId="54" priority="2" operator="containsText" text="OR">
       <formula>NOT(ISERROR(SEARCH("OR",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21626,27 +21165,27 @@
     <row r="1" spans="1:68" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:68" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="211"/>
-      <c r="O2" s="222"/>
-      <c r="P2" s="211"/>
-      <c r="Q2" s="211"/>
-      <c r="R2" s="211"/>
-      <c r="S2" s="211"/>
-      <c r="T2" s="211"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="224"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="213"/>
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
       <c r="W2" s="12"/>
@@ -21773,40 +21312,40 @@
         <v>45</v>
       </c>
       <c r="H4" s="20"/>
-      <c r="I4" s="223" t="s">
+      <c r="I4" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="211"/>
-      <c r="K4" s="211"/>
-      <c r="L4" s="211"/>
+      <c r="J4" s="213"/>
+      <c r="K4" s="213"/>
+      <c r="L4" s="213"/>
       <c r="M4" s="23"/>
-      <c r="N4" s="224" t="s">
+      <c r="N4" s="226" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="211"/>
-      <c r="P4" s="211"/>
-      <c r="Q4" s="211"/>
+      <c r="O4" s="213"/>
+      <c r="P4" s="213"/>
+      <c r="Q4" s="213"/>
       <c r="R4" s="23"/>
-      <c r="S4" s="225" t="s">
+      <c r="S4" s="227" t="s">
         <v>47</v>
       </c>
-      <c r="T4" s="211"/>
-      <c r="U4" s="211"/>
-      <c r="V4" s="211"/>
+      <c r="T4" s="213"/>
+      <c r="U4" s="213"/>
+      <c r="V4" s="213"/>
       <c r="W4" s="23"/>
-      <c r="X4" s="218" t="s">
+      <c r="X4" s="220" t="s">
         <v>48</v>
       </c>
-      <c r="Y4" s="211"/>
-      <c r="Z4" s="211"/>
-      <c r="AA4" s="211"/>
+      <c r="Y4" s="213"/>
+      <c r="Z4" s="213"/>
+      <c r="AA4" s="213"/>
       <c r="AB4" s="23"/>
-      <c r="AC4" s="219" t="s">
+      <c r="AC4" s="221" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" s="211"/>
-      <c r="AE4" s="211"/>
-      <c r="AF4" s="211"/>
+      <c r="AD4" s="213"/>
+      <c r="AE4" s="213"/>
+      <c r="AF4" s="213"/>
       <c r="AG4" s="23"/>
       <c r="AH4" s="23"/>
       <c r="AI4" s="23"/>
@@ -21917,7 +21456,7 @@
       </c>
       <c r="C6" s="25">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones435[Start])=0,TODAY(),B11(Milestones435[Start])),TODAY())</f>
-        <v>44746</v>
+        <v>44747</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="23"/>
@@ -22021,227 +21560,227 @@
       <c r="H7" s="20"/>
       <c r="I7" s="80">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="J7" s="9">
         <f t="shared" ref="J7:AO7" ca="1" si="0">I7+1</f>
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="L7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44750</v>
+        <v>44751</v>
       </c>
       <c r="M7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44751</v>
+        <v>44752</v>
       </c>
       <c r="N7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44752</v>
+        <v>44753</v>
       </c>
       <c r="O7" s="50">
         <f t="shared" ca="1" si="0"/>
-        <v>44753</v>
+        <v>44754</v>
       </c>
       <c r="P7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="Q7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="R7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="S7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44757</v>
+        <v>44758</v>
       </c>
       <c r="T7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44758</v>
+        <v>44759</v>
       </c>
       <c r="U7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44759</v>
+        <v>44760</v>
       </c>
       <c r="V7" s="50">
         <f t="shared" ca="1" si="0"/>
-        <v>44760</v>
+        <v>44761</v>
       </c>
       <c r="W7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="X7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="Y7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="Z7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44764</v>
+        <v>44765</v>
       </c>
       <c r="AA7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44765</v>
+        <v>44766</v>
       </c>
       <c r="AB7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44766</v>
+        <v>44767</v>
       </c>
       <c r="AC7" s="50">
         <f t="shared" ca="1" si="0"/>
-        <v>44767</v>
+        <v>44768</v>
       </c>
       <c r="AD7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44768</v>
+        <v>44769</v>
       </c>
       <c r="AE7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="AF7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44770</v>
+        <v>44771</v>
       </c>
       <c r="AG7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44771</v>
+        <v>44772</v>
       </c>
       <c r="AH7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44772</v>
+        <v>44773</v>
       </c>
       <c r="AI7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44773</v>
+        <v>44774</v>
       </c>
       <c r="AJ7" s="50">
         <f t="shared" ca="1" si="0"/>
-        <v>44774</v>
+        <v>44775</v>
       </c>
       <c r="AK7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44775</v>
+        <v>44776</v>
       </c>
       <c r="AL7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="AM7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="AN7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44778</v>
+        <v>44779</v>
       </c>
       <c r="AO7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44779</v>
+        <v>44780</v>
       </c>
       <c r="AP7" s="9">
         <f t="shared" ref="AP7:BL7" ca="1" si="1">AO7+1</f>
-        <v>44780</v>
+        <v>44781</v>
       </c>
       <c r="AQ7" s="50">
         <f t="shared" ca="1" si="1"/>
-        <v>44781</v>
+        <v>44782</v>
       </c>
       <c r="AR7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="AS7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44783</v>
+        <v>44784</v>
       </c>
       <c r="AT7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44784</v>
+        <v>44785</v>
       </c>
       <c r="AU7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44785</v>
+        <v>44786</v>
       </c>
       <c r="AV7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44786</v>
+        <v>44787</v>
       </c>
       <c r="AW7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44787</v>
+        <v>44788</v>
       </c>
       <c r="AX7" s="50">
         <f t="shared" ca="1" si="1"/>
-        <v>44788</v>
+        <v>44789</v>
       </c>
       <c r="AY7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="AZ7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="BA7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="BB7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44792</v>
+        <v>44793</v>
       </c>
       <c r="BC7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44793</v>
+        <v>44794</v>
       </c>
       <c r="BD7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44794</v>
+        <v>44795</v>
       </c>
       <c r="BE7" s="50">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="BF7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="BG7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="BH7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="BI7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44800</v>
       </c>
       <c r="BJ7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44801</v>
       </c>
       <c r="BK7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44801</v>
+        <v>44802</v>
       </c>
       <c r="BL7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="BM7" s="23"/>
     </row>
@@ -22335,19 +21874,19 @@
       <c r="H9" s="38"/>
       <c r="I9" s="27" t="str">
         <f t="shared" ref="I9:AN9" ca="1" si="2">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="J9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="K9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="L9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="M9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -22355,27 +21894,27 @@
       </c>
       <c r="N9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="O9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="P9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="Q9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="R9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="S9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="T9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -22383,27 +21922,27 @@
       </c>
       <c r="U9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="V9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="W9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="X9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="Y9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="Z9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AA9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -22411,27 +21950,27 @@
       </c>
       <c r="AB9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AC9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AD9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AE9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AF9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AG9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AH9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -22439,27 +21978,27 @@
       </c>
       <c r="AI9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AJ9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AK9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AL9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AM9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AN9" s="27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AO9" s="27" t="str">
         <f t="shared" ref="AO9:BL9" ca="1" si="3">LEFT(TEXT(AO7,"ddd"),1)</f>
@@ -22467,27 +22006,27 @@
       </c>
       <c r="AP9" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AQ9" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AR9" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AS9" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AT9" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AU9" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AV9" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -22495,27 +22034,27 @@
       </c>
       <c r="AW9" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AX9" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AY9" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AZ9" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BA9" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BB9" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BC9" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -22523,27 +22062,27 @@
       </c>
       <c r="BD9" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BE9" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BF9" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BG9" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BH9" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BI9" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BJ9" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -22551,11 +22090,11 @@
       </c>
       <c r="BK9" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BL9" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BM9" s="23"/>
     </row>
@@ -22879,7 +22418,7 @@
       </c>
       <c r="F12" s="15">
         <f ca="1">TODAY()</f>
-        <v>44746</v>
+        <v>44747</v>
       </c>
       <c r="G12" s="16">
         <v>3</v>
@@ -23123,7 +22662,7 @@
       <c r="E13" s="14"/>
       <c r="F13" s="15">
         <f ca="1">TODAY()+5</f>
-        <v>44751</v>
+        <v>44752</v>
       </c>
       <c r="G13" s="16">
         <v>1</v>
@@ -23369,7 +22908,7 @@
       </c>
       <c r="F14" s="15">
         <f ca="1">F12-3</f>
-        <v>44743</v>
+        <v>44744</v>
       </c>
       <c r="G14" s="16">
         <v>10</v>
@@ -23613,7 +23152,7 @@
       <c r="E15" s="14"/>
       <c r="F15" s="15">
         <f ca="1">F12+20</f>
-        <v>44766</v>
+        <v>44767</v>
       </c>
       <c r="G15" s="16">
         <v>1</v>
@@ -23859,7 +23398,7 @@
       </c>
       <c r="F16" s="15">
         <f ca="1">F12+6</f>
-        <v>44752</v>
+        <v>44753</v>
       </c>
       <c r="G16" s="16">
         <v>6</v>
@@ -24342,7 +23881,7 @@
       </c>
       <c r="F18" s="15">
         <f ca="1">F12+6</f>
-        <v>44752</v>
+        <v>44753</v>
       </c>
       <c r="G18" s="16">
         <v>13</v>
@@ -24588,7 +24127,7 @@
       </c>
       <c r="F19" s="15">
         <f ca="1">F18+2</f>
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="G19" s="16">
         <v>9</v>
@@ -24834,7 +24373,7 @@
       </c>
       <c r="F20" s="15">
         <f ca="1">F19+5</f>
-        <v>44759</v>
+        <v>44760</v>
       </c>
       <c r="G20" s="16">
         <v>11</v>
@@ -25078,7 +24617,7 @@
       <c r="E21" s="14"/>
       <c r="F21" s="15">
         <f ca="1">F20+2</f>
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="G21" s="16">
         <v>1</v>
@@ -25320,7 +24859,7 @@
       <c r="E22" s="14"/>
       <c r="F22" s="15">
         <f ca="1">F21+1</f>
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="G22" s="16">
         <v>24</v>
@@ -25801,7 +25340,7 @@
       <c r="E24" s="14"/>
       <c r="F24" s="15">
         <f ca="1">F12+15</f>
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="G24" s="16">
         <v>4</v>
@@ -26045,7 +25584,7 @@
       <c r="E25" s="14"/>
       <c r="F25" s="15">
         <f ca="1">F24+3</f>
-        <v>44764</v>
+        <v>44765</v>
       </c>
       <c r="G25" s="16">
         <v>14</v>
@@ -26289,7 +25828,7 @@
       <c r="E26" s="14"/>
       <c r="F26" s="15">
         <f ca="1">F25+15</f>
-        <v>44779</v>
+        <v>44780</v>
       </c>
       <c r="G26" s="16">
         <v>6</v>
@@ -26533,7 +26072,7 @@
       <c r="E27" s="14"/>
       <c r="F27" s="15">
         <f ca="1">F21+22</f>
-        <v>44783</v>
+        <v>44784</v>
       </c>
       <c r="G27" s="16">
         <v>3</v>
@@ -26777,7 +26316,7 @@
       <c r="E28" s="14"/>
       <c r="F28" s="15">
         <f ca="1">F16</f>
-        <v>44752</v>
+        <v>44753</v>
       </c>
       <c r="G28" s="16">
         <v>19</v>
@@ -27256,7 +26795,7 @@
       <c r="E30" s="14"/>
       <c r="F30" s="15">
         <f ca="1">F27+3</f>
-        <v>44786</v>
+        <v>44787</v>
       </c>
       <c r="G30" s="16">
         <v>15</v>
@@ -27498,7 +27037,7 @@
       <c r="E31" s="14"/>
       <c r="F31" s="15">
         <f ca="1">F30+14</f>
-        <v>44800</v>
+        <v>44801</v>
       </c>
       <c r="G31" s="16">
         <v>5</v>
@@ -27742,7 +27281,7 @@
       <c r="E32" s="14"/>
       <c r="F32" s="15">
         <f ca="1">F31+42</f>
-        <v>44842</v>
+        <v>44843</v>
       </c>
       <c r="G32" s="16">
         <v>1</v>
@@ -28781,56 +28320,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="64" priority="1">
+    <cfRule type="expression" dxfId="40" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="63" priority="4">
+    <cfRule type="expression" dxfId="39" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="62" priority="3">
+    <cfRule type="expression" dxfId="38" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="61" priority="2">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="60" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="55" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28892,32 +28431,32 @@
     <row r="1" spans="1:73" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:73" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="227" t="s">
+      <c r="B2" s="229" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="228"/>
-      <c r="O2" s="211"/>
-      <c r="P2" s="211"/>
-      <c r="Q2" s="211"/>
-      <c r="R2" s="211"/>
-      <c r="S2" s="211"/>
-      <c r="T2" s="229"/>
-      <c r="U2" s="211"/>
-      <c r="V2" s="211"/>
-      <c r="W2" s="211"/>
-      <c r="X2" s="211"/>
-      <c r="Y2" s="211"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="231"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="213"/>
+      <c r="X2" s="213"/>
+      <c r="Y2" s="213"/>
       <c r="Z2" s="81"/>
       <c r="AA2" s="81"/>
       <c r="AB2" s="81"/>
@@ -29001,36 +28540,36 @@
         <v>45</v>
       </c>
       <c r="M4" s="61"/>
-      <c r="N4" s="223" t="s">
+      <c r="N4" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="211"/>
-      <c r="P4" s="211"/>
-      <c r="Q4" s="211"/>
-      <c r="S4" s="224" t="s">
+      <c r="O4" s="213"/>
+      <c r="P4" s="213"/>
+      <c r="Q4" s="213"/>
+      <c r="S4" s="226" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="211"/>
-      <c r="U4" s="211"/>
-      <c r="V4" s="211"/>
-      <c r="X4" s="225" t="s">
+      <c r="T4" s="213"/>
+      <c r="U4" s="213"/>
+      <c r="V4" s="213"/>
+      <c r="X4" s="227" t="s">
         <v>47</v>
       </c>
-      <c r="Y4" s="211"/>
-      <c r="Z4" s="211"/>
-      <c r="AA4" s="211"/>
-      <c r="AC4" s="226" t="s">
+      <c r="Y4" s="213"/>
+      <c r="Z4" s="213"/>
+      <c r="AA4" s="213"/>
+      <c r="AC4" s="228" t="s">
         <v>48</v>
       </c>
-      <c r="AD4" s="211"/>
-      <c r="AE4" s="211"/>
-      <c r="AF4" s="211"/>
-      <c r="AH4" s="219" t="s">
+      <c r="AD4" s="213"/>
+      <c r="AE4" s="213"/>
+      <c r="AF4" s="213"/>
+      <c r="AH4" s="221" t="s">
         <v>49</v>
       </c>
-      <c r="AI4" s="211"/>
-      <c r="AJ4" s="211"/>
-      <c r="AK4" s="211"/>
+      <c r="AI4" s="213"/>
+      <c r="AJ4" s="213"/>
+      <c r="AK4" s="213"/>
     </row>
     <row r="5" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -29056,7 +28595,7 @@
       </c>
       <c r="C6" s="66">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones43524[Start])=0,TODAY(),B11(Milestones43524[Start])),TODAY())</f>
-        <v>44746</v>
+        <v>44747</v>
       </c>
       <c r="D6" s="67"/>
       <c r="E6" s="61"/>
@@ -29169,227 +28708,227 @@
       <c r="M7" s="69"/>
       <c r="N7" s="82">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44746</v>
+        <v>44747</v>
       </c>
       <c r="O7" s="83">
         <f t="shared" ref="O7:AT7" ca="1" si="0">N7+1</f>
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="P7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="Q7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="R7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44750</v>
+        <v>44751</v>
       </c>
       <c r="S7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44751</v>
+        <v>44752</v>
       </c>
       <c r="T7" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44752</v>
+        <v>44753</v>
       </c>
       <c r="U7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44753</v>
+        <v>44754</v>
       </c>
       <c r="V7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="W7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="X7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="Y7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44757</v>
+        <v>44758</v>
       </c>
       <c r="Z7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44758</v>
+        <v>44759</v>
       </c>
       <c r="AA7" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44759</v>
+        <v>44760</v>
       </c>
       <c r="AB7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44760</v>
+        <v>44761</v>
       </c>
       <c r="AC7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="AD7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="AE7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="AF7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44764</v>
+        <v>44765</v>
       </c>
       <c r="AG7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44765</v>
+        <v>44766</v>
       </c>
       <c r="AH7" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44766</v>
+        <v>44767</v>
       </c>
       <c r="AI7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44767</v>
+        <v>44768</v>
       </c>
       <c r="AJ7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44768</v>
+        <v>44769</v>
       </c>
       <c r="AK7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="AL7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44770</v>
+        <v>44771</v>
       </c>
       <c r="AM7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44771</v>
+        <v>44772</v>
       </c>
       <c r="AN7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44772</v>
+        <v>44773</v>
       </c>
       <c r="AO7" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44773</v>
+        <v>44774</v>
       </c>
       <c r="AP7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44774</v>
+        <v>44775</v>
       </c>
       <c r="AQ7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44775</v>
+        <v>44776</v>
       </c>
       <c r="AR7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="AS7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="AT7" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>44778</v>
+        <v>44779</v>
       </c>
       <c r="AU7" s="83">
         <f t="shared" ref="AU7:BQ7" ca="1" si="1">AT7+1</f>
-        <v>44779</v>
+        <v>44780</v>
       </c>
       <c r="AV7" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44780</v>
+        <v>44781</v>
       </c>
       <c r="AW7" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44781</v>
+        <v>44782</v>
       </c>
       <c r="AX7" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="AY7" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44783</v>
+        <v>44784</v>
       </c>
       <c r="AZ7" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44784</v>
+        <v>44785</v>
       </c>
       <c r="BA7" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44785</v>
+        <v>44786</v>
       </c>
       <c r="BB7" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44786</v>
+        <v>44787</v>
       </c>
       <c r="BC7" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44787</v>
+        <v>44788</v>
       </c>
       <c r="BD7" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44788</v>
+        <v>44789</v>
       </c>
       <c r="BE7" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="BF7" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="BG7" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="BH7" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44792</v>
+        <v>44793</v>
       </c>
       <c r="BI7" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44793</v>
+        <v>44794</v>
       </c>
       <c r="BJ7" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44794</v>
+        <v>44795</v>
       </c>
       <c r="BK7" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="BL7" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="BM7" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="BN7" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="BO7" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44800</v>
       </c>
       <c r="BP7" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44801</v>
       </c>
       <c r="BQ7" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44801</v>
+        <v>44802</v>
       </c>
     </row>
     <row r="8" spans="1:73" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29501,23 +29040,23 @@
       <c r="M9" s="72"/>
       <c r="N9" s="90" t="str">
         <f t="shared" ref="N9:AS9" ca="1" si="2">LEFT(TEXT(N7,"ddd"),1)</f>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="O9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="P9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="Q9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="R9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="S9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -29525,27 +29064,27 @@
       </c>
       <c r="T9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="U9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="V9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="W9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="X9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="Y9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="Z9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -29553,27 +29092,27 @@
       </c>
       <c r="AA9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AB9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AC9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AD9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AE9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AF9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AG9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -29581,27 +29120,27 @@
       </c>
       <c r="AH9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AI9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AJ9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AK9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AL9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AM9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AN9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -29609,27 +29148,27 @@
       </c>
       <c r="AO9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AP9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AQ9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AR9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AS9" s="90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AT9" s="90" t="str">
         <f t="shared" ref="AT9:BQ9" ca="1" si="3">LEFT(TEXT(AT7,"ddd"),1)</f>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AU9" s="90" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -29637,27 +29176,27 @@
       </c>
       <c r="AV9" s="90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AW9" s="90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AX9" s="90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AY9" s="90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AZ9" s="90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BA9" s="90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BB9" s="90" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -29665,27 +29204,27 @@
       </c>
       <c r="BC9" s="90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BD9" s="90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BE9" s="90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BF9" s="90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BG9" s="90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BH9" s="90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BI9" s="90" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -29693,27 +29232,27 @@
       </c>
       <c r="BJ9" s="90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BK9" s="90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BL9" s="90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BM9" s="90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BN9" s="90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BO9" s="90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BP9" s="90" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -29721,7 +29260,7 @@
       </c>
       <c r="BQ9" s="90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
     </row>
     <row r="10" spans="1:73" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -30056,7 +29595,7 @@
       <c r="J12" s="49"/>
       <c r="K12" s="71">
         <f ca="1">TODAY()</f>
-        <v>44746</v>
+        <v>44747</v>
       </c>
       <c r="L12" s="111">
         <v>3</v>
@@ -30304,7 +29843,7 @@
       <c r="J13" s="49"/>
       <c r="K13" s="71">
         <f ca="1">TODAY()+5</f>
-        <v>44751</v>
+        <v>44752</v>
       </c>
       <c r="L13" s="111">
         <v>1</v>
@@ -30554,7 +30093,7 @@
       <c r="J14" s="49"/>
       <c r="K14" s="71">
         <f ca="1">K12-3</f>
-        <v>44743</v>
+        <v>44744</v>
       </c>
       <c r="L14" s="111">
         <v>10</v>
@@ -30802,7 +30341,7 @@
       <c r="J15" s="49"/>
       <c r="K15" s="71">
         <f ca="1">K12+20</f>
-        <v>44766</v>
+        <v>44767</v>
       </c>
       <c r="L15" s="111">
         <v>1</v>
@@ -31052,7 +30591,7 @@
       <c r="J16" s="49"/>
       <c r="K16" s="71">
         <f ca="1">K12+6</f>
-        <v>44752</v>
+        <v>44753</v>
       </c>
       <c r="L16" s="111">
         <v>6</v>
@@ -31543,7 +31082,7 @@
       <c r="J18" s="49"/>
       <c r="K18" s="71">
         <f ca="1">K12+6</f>
-        <v>44752</v>
+        <v>44753</v>
       </c>
       <c r="L18" s="111">
         <v>13</v>
@@ -31793,7 +31332,7 @@
       <c r="J19" s="49"/>
       <c r="K19" s="71">
         <f ca="1">K18+2</f>
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="L19" s="111">
         <v>9</v>
@@ -32043,7 +31582,7 @@
       <c r="J20" s="49"/>
       <c r="K20" s="71">
         <f ca="1">K19+5</f>
-        <v>44759</v>
+        <v>44760</v>
       </c>
       <c r="L20" s="111">
         <v>11</v>
@@ -32291,7 +31830,7 @@
       <c r="J21" s="49"/>
       <c r="K21" s="71">
         <f ca="1">K20+2</f>
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="L21" s="111">
         <v>1</v>
@@ -32537,7 +32076,7 @@
       <c r="J22" s="49"/>
       <c r="K22" s="71">
         <f ca="1">K21+1</f>
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="L22" s="111">
         <v>24</v>
@@ -33026,7 +32565,7 @@
       <c r="J24" s="49"/>
       <c r="K24" s="71">
         <f ca="1">K12+15</f>
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="L24" s="111">
         <v>4</v>
@@ -33274,7 +32813,7 @@
       <c r="J25" s="49"/>
       <c r="K25" s="71">
         <f ca="1">K24+3</f>
-        <v>44764</v>
+        <v>44765</v>
       </c>
       <c r="L25" s="111">
         <v>14</v>
@@ -33522,7 +33061,7 @@
       <c r="J26" s="49"/>
       <c r="K26" s="71">
         <f ca="1">K25+15</f>
-        <v>44779</v>
+        <v>44780</v>
       </c>
       <c r="L26" s="111">
         <v>6</v>
@@ -33770,7 +33309,7 @@
       <c r="J27" s="49"/>
       <c r="K27" s="71">
         <f ca="1">K21+22</f>
-        <v>44783</v>
+        <v>44784</v>
       </c>
       <c r="L27" s="111">
         <v>3</v>
@@ -34018,7 +33557,7 @@
       <c r="J28" s="49"/>
       <c r="K28" s="71">
         <f ca="1">K16</f>
-        <v>44752</v>
+        <v>44753</v>
       </c>
       <c r="L28" s="111">
         <v>19</v>
@@ -34505,7 +34044,7 @@
       <c r="J30" s="49"/>
       <c r="K30" s="71">
         <f ca="1">K27+3</f>
-        <v>44786</v>
+        <v>44787</v>
       </c>
       <c r="L30" s="111">
         <v>15</v>
@@ -34751,7 +34290,7 @@
       <c r="J31" s="49"/>
       <c r="K31" s="71">
         <f ca="1">K30+14</f>
-        <v>44800</v>
+        <v>44801</v>
       </c>
       <c r="L31" s="111">
         <v>5</v>
@@ -34999,7 +34538,7 @@
       <c r="J32" s="49"/>
       <c r="K32" s="71">
         <f ca="1">K31+42</f>
-        <v>44842</v>
+        <v>44843</v>
       </c>
       <c r="L32" s="111">
         <v>1</v>
@@ -36054,56 +35593,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:BQ36">
-    <cfRule type="expression" dxfId="46" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>AND(TODAY()&gt;=N$7,TODAY()&lt;O$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:AR6">
-    <cfRule type="expression" dxfId="45" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>N$7&lt;=EOMONTH($N$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:BQ6">
-    <cfRule type="expression" dxfId="44" priority="3">
+    <cfRule type="expression" dxfId="20" priority="3">
       <formula>AND(O$7&lt;=EOMONTH($N$7,2),O$7&gt;EOMONTH($N$7,0),O$7&gt;EOMONTH($N$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:BQ6">
-    <cfRule type="expression" dxfId="43" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>AND(N$7&lt;=EOMONTH($N$7,1),N$7&gt;EOMONTH($N$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:BQ35">
-    <cfRule type="expression" dxfId="42" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",N$7&gt;=$K10,N$7&lt;=$K10+$L10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",N$7&gt;=$K10,N$7&lt;=$K10+$L10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",N$7&gt;=$K10,N$7&lt;=$K10+$L10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",N$7&gt;=$K10,N$7&lt;=$K10+$L10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,N$7&gt;=$K10,N$7&lt;=$K10+$L10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36:BQ36">
-    <cfRule type="expression" dxfId="37" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",N$7&gt;=#REF!,N$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",N$7&gt;=#REF!,N$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",N$7&gt;=#REF!,N$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",N$7&gt;=#REF!,N$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,N$7&gt;=#REF!,N$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
